--- a/va_facility_data_2025-02-20/Hampton VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Hampton%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hampton VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Hampton%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R3c2ee924ce6542aeab5822dbf5b4fd22"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rfd799a6445b541df82623ec0ebfd6159"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4cc3d372a35f4525a74cf87c4586b540"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rc5db9545ac0d40d68b6e3342dbc18105"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rb7ed6d834db04f31b8547a7cbcea2a5d"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R29d55bc82e4947cbaeeffc6a993ce909"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R641ffcca4df546c2827a1c8b09036efd"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R94d52016908447409e620b4cdc107d47"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd7315acc85ce4ef3a835038964b2ae6e"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Re3aef99610e7486b8449e44274c88e9d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R9b4832d59c77461c92db25bb4c703ad1"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R082da52913f54be1b174c494cf85dc4e"/>
   </x:sheets>
 </x:workbook>
 </file>
